--- a/phyton komendy.xlsx
+++ b/phyton komendy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="128">
   <si>
     <t>print ()</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>wszystkie ale co drugi znak</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -739,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,6 +1067,11 @@
       </c>
       <c r="B40" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">

--- a/phyton komendy.xlsx
+++ b/phyton komendy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
   <si>
     <t>print ()</t>
   </si>
@@ -400,6 +400,18 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>lista[0], lista[1] = lista[1], lista[0]</t>
+  </si>
+  <si>
+    <t>zamiana elementów listy miejscami</t>
+  </si>
+  <si>
+    <t>przeszukanie słownika</t>
+  </si>
+  <si>
+    <t>for x, y in slownik.items():</t>
   </si>
 </sst>
 </file>
@@ -740,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,327 +970,344 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>3</v>
+      <c r="A27" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B47" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>83</v>
-      </c>
-      <c r="B49" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>80</v>
+      </c>
+      <c r="B53" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>66</v>
-      </c>
-      <c r="B57" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>68</v>
-      </c>
-      <c r="B62" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>85</v>
-      </c>
-      <c r="B68" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>90</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B73" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/phyton komendy.xlsx
+++ b/phyton komendy.xlsx
@@ -8,15 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
-    <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
+    <sheet name="Arkusz3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="150">
   <si>
     <t>print ()</t>
   </si>
@@ -400,6 +399,73 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>import time</t>
+  </si>
+  <si>
+    <t>time.sleep(1)</t>
+  </si>
+  <si>
+    <t>import biblioteki time</t>
+  </si>
+  <si>
+    <t>oczekiwanie 1 sek</t>
+  </si>
+  <si>
+    <t>"""     """</t>
+  </si>
+  <si>
+    <t>komentarz, wiele linni</t>
+  </si>
+  <si>
+    <t>txt.replace("Ł", "L")</t>
+  </si>
+  <si>
+    <t>zamiana znaku</t>
+  </si>
+  <si>
+    <t>_x000D_
+print(txt.format(age))</t>
+  </si>
+  <si>
+    <t>txt = "My name is John, and I am {} and {}"</t>
+  </si>
+  <si>
+    <t>pring(txt.format(zm1,zm2))</t>
+  </si>
+  <si>
+    <t>{} w tekście zmienna/e</t>
+  </si>
+  <si>
+    <t>lista.insert(2,"aaa")</t>
+  </si>
+  <si>
+    <t>dodanie elementu do listy w 3 miejscu</t>
+  </si>
+  <si>
+    <t>slownik.add("aaa")</t>
+  </si>
+  <si>
+    <t>dodanie elementu do słowika</t>
+  </si>
+  <si>
+    <t>slownik</t>
+  </si>
+  <si>
+    <t>fruits = {"apple", "banana", "cherry"}</t>
+  </si>
+  <si>
+    <t>more_fruits = ["orange", "mango", "grapes"]</t>
+  </si>
+  <si>
+    <t>zmienna.update(dodawane_elementy)</t>
+  </si>
+  <si>
+    <t>zmienna.remove(usunięte_elementy)</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/python/exercise.asp?filename=exercise_ifelse1</t>
   </si>
 </sst>
 </file>
@@ -436,9 +502,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -740,15 +809,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B81"/>
+  <sheetPr codeName="Arkusz1"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -922,363 +992,464 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>134</v>
+      </c>
+      <c r="B22" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" t="s">
-        <v>48</v>
+      <c r="A25" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B32" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>142</v>
+      </c>
+      <c r="B42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" t="s">
-        <v>19</v>
+      <c r="A46" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B47" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" t="s">
-        <v>21</v>
+      <c r="A47" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>108</v>
+      </c>
+      <c r="B53" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>56</v>
+        <v>110</v>
+      </c>
+      <c r="B54" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>66</v>
-      </c>
-      <c r="B57" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>63</v>
+      <c r="A60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>64</v>
+      <c r="A61" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>68</v>
+      <c r="A62" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>52</v>
+      </c>
+      <c r="B66" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>78</v>
-      </c>
-      <c r="B67" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>85</v>
-      </c>
-      <c r="B68" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>86</v>
-      </c>
-      <c r="B69" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="B70" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>91</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>61</v>
+      </c>
+      <c r="B73" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>68</v>
+      </c>
+      <c r="B76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>75</v>
+      </c>
+      <c r="B79" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>128</v>
+      </c>
+      <c r="B87" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>129</v>
+      </c>
+      <c r="B88" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>92</v>
       </c>
     </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
+  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1292,16 +1463,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/phyton komendy.xlsx
+++ b/phyton komendy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="220">
   <si>
     <t>print ()</t>
   </si>
@@ -466,13 +466,245 @@
   </si>
   <si>
     <t>https://www.w3schools.com/python/exercise.asp?filename=exercise_ifelse1</t>
+  </si>
+  <si>
+    <t>pip install pandas</t>
+  </si>
+  <si>
+    <t>istalacja bibioteki pandas</t>
+  </si>
+  <si>
+    <t>import pandas as pd</t>
+  </si>
+  <si>
+    <t>importujemy do wykorzystania bibliotekę pod standardową nazwą jaką nazywa się pandas - pd</t>
+  </si>
+  <si>
+    <t>instalacja bibiotek do obsługi plików excel</t>
+  </si>
+  <si>
+    <t>pip install xlwt openpyxl xlrd</t>
+  </si>
+  <si>
+    <t>openpyxl zapis do plików xlsx</t>
+  </si>
+  <si>
+    <t>xlrd odrzyt xls i xlsx</t>
+  </si>
+  <si>
+    <t>xlwt zapis xls</t>
+  </si>
+  <si>
+    <t>pd.read_excel('c:/users/mo1de/Documents/GitHub/mo1der/imiona.xlsx')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zaczytanie pliku excel z danej ścieżki, znaki / </t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>oznaczenie pustej komórki</t>
+  </si>
+  <si>
+    <t>zbior = pd.DataFrame()</t>
+  </si>
+  <si>
+    <t>utworzenie pustego DataFrame (arkusza)</t>
+  </si>
+  <si>
+    <t>lista = [1,2,5,7]</t>
+  </si>
+  <si>
+    <t>utworzenie arkusza z danych z listy</t>
+  </si>
+  <si>
+    <t>arkusz=pd.DataFrame(lista)</t>
+  </si>
+  <si>
+    <t>tabela2.columns=["styczeń","luty","marzec", "kwiecień"]</t>
+  </si>
+  <si>
+    <t>wpisanie nazw kolumn</t>
+  </si>
+  <si>
+    <t>slownik = {'Imie':['Ania','Michał','Przemek'], 'Wiek':[18,25,40]}</t>
+  </si>
+  <si>
+    <t>s = pd.Series([11,33,55,99])</t>
+  </si>
+  <si>
+    <t>pd.DataFrame(s)</t>
+  </si>
+  <si>
+    <t>typ series, zawiera kolumnę z indeksem jak ją tworzymy</t>
+  </si>
+  <si>
+    <t>read_csv()</t>
+  </si>
+  <si>
+    <t>read_excel()</t>
+  </si>
+  <si>
+    <t>read_json()</t>
+  </si>
+  <si>
+    <t>read_pickle()</t>
+  </si>
+  <si>
+    <t>read_sql()</t>
+  </si>
+  <si>
+    <t>to_csv()</t>
+  </si>
+  <si>
+    <t>to_excel()</t>
+  </si>
+  <si>
+    <t>to_json()</t>
+  </si>
+  <si>
+    <t>to_pickle()</t>
+  </si>
+  <si>
+    <t>to_sql()</t>
+  </si>
+  <si>
+    <t>to_html()</t>
+  </si>
+  <si>
+    <t>pd.read_excel('ścieżka', sheet_name='nazwa arkusza', header=None, names=['Nazwy', 'Poszczególnych', 'Kolumn'])</t>
+  </si>
+  <si>
+    <t>header to nr wiersza z nazwami kolumn liczony od 0</t>
+  </si>
+  <si>
+    <t>tabela.head()</t>
+  </si>
+  <si>
+    <t>wyświetla pierwsze 5 rekordów</t>
+  </si>
+  <si>
+    <t>5 ostatnich rekrodów</t>
+  </si>
+  <si>
+    <t>tabela[2:10]</t>
+  </si>
+  <si>
+    <t>wyświetla rekrody w zakresie, od 3 do 9 włącznie</t>
+  </si>
+  <si>
+    <r>
+      <t>tabela.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>tail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>tabela['nazwa_kolumny_do_wyświetlenia']</t>
+  </si>
+  <si>
+    <t>wartości unikalne</t>
+  </si>
+  <si>
+    <t>nazwa_arkusza.nazwa_kolumny.unique()</t>
+  </si>
+  <si>
+    <t>pd.unique(animals)</t>
+  </si>
+  <si>
+    <t>nazwa_arkusza['nazwa_kolumny'].unique()</t>
+  </si>
+  <si>
+    <t>nazwa kolumny mozę być w nawiazie i cudzysłowie lub po kropce</t>
+  </si>
+  <si>
+    <t>nazwa_arkusz.nazwa_kolumny</t>
+  </si>
+  <si>
+    <t>nazwa_arkusza[0:8][['nazwa_kolumny]]</t>
+  </si>
+  <si>
+    <t>wyświetla wiersze 0-8 z kolumny nazwa</t>
+  </si>
+  <si>
+    <t>nazwa_arkusza.shape</t>
+  </si>
+  <si>
+    <t>info ilość wierszy i kolumn</t>
+  </si>
+  <si>
+    <t>nazwa_arkusza.info()</t>
+  </si>
+  <si>
+    <t>informacja na temat kolumn</t>
+  </si>
+  <si>
+    <t>nazwa_arkusza.describe()</t>
+  </si>
+  <si>
+    <t>statystyki dla kolumn z danymi</t>
+  </si>
+  <si>
+    <t>nazwa_arkusza.nazwa_kolumny.describe()</t>
+  </si>
+  <si>
+    <t>statystyki dla kolumny</t>
+  </si>
+  <si>
+    <t>nazwa_arkusza.isnull()</t>
+  </si>
+  <si>
+    <t>sprawdza czy komórki zawierają wartości wynik True/False</t>
+  </si>
+  <si>
+    <t>suma komórek</t>
+  </si>
+  <si>
+    <t>nazwa_arkusza.isnull().sum()</t>
+  </si>
+  <si>
+    <t>notnull()</t>
+  </si>
+  <si>
+    <t>nie puste</t>
+  </si>
+  <si>
+    <t>duplicated()</t>
+  </si>
+  <si>
+    <t>sprawdza czy są zduplikowane rekordy</t>
+  </si>
+  <si>
+    <t>drop_duplicates()</t>
+  </si>
+  <si>
+    <t>usuwa zduplikowane rekordy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,6 +712,39 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2F3235"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12.1"/>
+      <color rgb="FF2F3235"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12.1"/>
+      <color rgb="FF0086B3"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12.1"/>
+      <color rgb="FF777777"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF4A4E57"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -502,10 +767,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -810,19 +1083,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Arkusz1"/>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>117</v>
       </c>
@@ -830,7 +1103,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -838,7 +1111,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -846,7 +1119,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -854,7 +1127,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -862,7 +1135,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -870,7 +1143,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -878,7 +1151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -886,7 +1159,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -894,7 +1167,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -902,7 +1175,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -910,7 +1183,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -918,7 +1191,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>121</v>
       </c>
@@ -926,7 +1199,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -934,7 +1207,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -942,7 +1215,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -950,7 +1223,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -958,7 +1231,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -966,7 +1239,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -974,7 +1247,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -982,7 +1255,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -990,7 +1263,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>134</v>
       </c>
@@ -998,7 +1271,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>137</v>
       </c>
@@ -1006,22 +1279,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
@@ -1029,7 +1302,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>140</v>
       </c>
@@ -1037,7 +1310,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
@@ -1045,10 +1318,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>49</v>
       </c>
@@ -1056,7 +1329,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
         <v>50</v>
       </c>
@@ -1064,7 +1337,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1072,7 +1345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>132</v>
       </c>
@@ -1080,7 +1353,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1088,7 +1361,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1096,7 +1369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1104,7 +1377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -1112,7 +1385,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -1120,7 +1393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -1128,322 +1401,622 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
         <v>17</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>142</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
         <v>100</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
         <v>102</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
         <v>104</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
         <v>106</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
         <v>108</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
         <v>110</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
         <v>83</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
         <v>22</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
         <v>80</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
         <v>52</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
         <v>60</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
         <v>66</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
         <v>59</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
         <v>61</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
         <v>64</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
         <v>68</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
         <v>71</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
         <v>74</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
         <v>75</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
         <v>78</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
         <v>85</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
         <v>86</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
         <v>88</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
         <v>90</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
         <v>128</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
         <v>129</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>150</v>
+      </c>
+      <c r="B106" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>152</v>
+      </c>
+      <c r="B107" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="B108" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="B109" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C109" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="C110" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="C111" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>159</v>
+      </c>
+      <c r="B112" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="60">
+      <c r="A113" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B113" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>161</v>
+      </c>
+      <c r="B115" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>163</v>
+      </c>
+      <c r="B116" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>167</v>
+      </c>
+      <c r="B118" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>168</v>
+      </c>
+      <c r="B119" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>171</v>
+      </c>
+      <c r="B121" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="18">
+      <c r="A124" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="18">
+      <c r="A125" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="18">
+      <c r="A126" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="18">
+      <c r="A127" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="18">
+      <c r="A128" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="18">
+      <c r="A130" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="18">
+      <c r="A131" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="18">
+      <c r="A132" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="18">
+      <c r="A133" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="18">
+      <c r="A134" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="18">
+      <c r="A135" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="18">
+      <c r="A137" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B137" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15.75">
+      <c r="A138" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="18">
+      <c r="A139" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B139" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="36">
+      <c r="A140" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="36">
+      <c r="A142" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B142" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="18">
+      <c r="A143" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="36">
+      <c r="A144" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="72">
+      <c r="A146" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="36">
+      <c r="A147" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B147" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="18">
+      <c r="A149" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B149" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="18">
+      <c r="A150" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B150" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="36">
+      <c r="A151" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B151" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="36">
+      <c r="A152" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B152" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="18">
+      <c r="A153" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B153" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="36">
+      <c r="A154" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B154" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="18">
+      <c r="A155" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B155" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="18">
+      <c r="A156" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B156" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="18">
+      <c r="A157" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B157" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -1459,7 +2032,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/phyton komendy.xlsx
+++ b/phyton komendy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="275">
   <si>
     <t>print ()</t>
   </si>
@@ -640,9 +640,6 @@
     <t>nazwa_arkusz.nazwa_kolumny</t>
   </si>
   <si>
-    <t>nazwa_arkusza[0:8][['nazwa_kolumny]]</t>
-  </si>
-  <si>
     <t>wyświetla wiersze 0-8 z kolumny nazwa</t>
   </si>
   <si>
@@ -698,13 +695,942 @@
   </si>
   <si>
     <t>usuwa zduplikowane rekordy</t>
+  </si>
+  <si>
+    <t>Just Join IT - [Live] O co chodzi z Data Science? | Webinar z Prelegentką I &lt;3 Dev | Facebook</t>
+  </si>
+  <si>
+    <t>nazwa_arkusza[0:8][['nazwy_kolumn_rozdzielane przecinkami']]</t>
+  </si>
+  <si>
+    <t>nazwa_arkusza.nazwa_kolumny.is_unique</t>
+  </si>
+  <si>
+    <t>sprawdza czy kolumna zawiera wartości unikalne</t>
+  </si>
+  <si>
+    <r>
+      <t>nazwa arkusza.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>index</t>
+    </r>
+  </si>
+  <si>
+    <t>sprawdzenie indeksów</t>
+  </si>
+  <si>
+    <t>zmiana kolumny z indeksem liczbowym na inna kolumnę zawierającą unikalne wartości</t>
+  </si>
+  <si>
+    <t>nazwa_arkusza.set_index('nazwa kolumny', inplace=True)</t>
+  </si>
+  <si>
+    <r>
+      <t>kostium = kostium.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>reset_index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"># lub </t>
+  </si>
+  <si>
+    <r>
+      <t>kostium.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>reset_index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>inplace=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12.1"/>
+        <color rgb="FF286491"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>resetowanie indeksu</t>
+  </si>
+  <si>
+    <t>kostium.loc['Arizona']</t>
+  </si>
+  <si>
+    <t>wywołanie wiersza ze wskazanym indeksem</t>
+  </si>
+  <si>
+    <t>kostium.loc['Arizona','1']</t>
+  </si>
+  <si>
+    <t>wywołanie dokładnie komórki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kostium.loc[3,’1′] </t>
+  </si>
+  <si>
+    <t>wywołanie komórki z indeksem numerycznym</t>
+  </si>
+  <si>
+    <r>
+      <t>kostium.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>iloc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF009999"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF009999"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>wywołanie wyłącznie na podstawie indeksów numerycznych</t>
+  </si>
+  <si>
+    <r>
+      <t>kostium.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>iterrows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>zwraca kolejne wiersze</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for index, zawartosc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12.1"/>
+        <color rgb="FF286491"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> kostium.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>iterrows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>maska na postawie True/False</t>
+  </si>
+  <si>
+    <t>kostium['1'] == 'Rabbit'</t>
+  </si>
+  <si>
+    <r>
+      <t>kostium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> kostium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>'1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>'Rabbit'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>maski</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>zamiast and</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>zamiast or</t>
+  </si>
+  <si>
+    <t>łączenie masek nazwa_arkusza[(filtr1) | (filtr2)]</t>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> zawartosc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>'1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>'Rabbit'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Dodanie nowej kolumnyu</t>
+  </si>
+  <si>
+    <t>nazwa_arkusza['nazwa_nowej_kolumny'] = 'wartosci_nowej_kolumny'</t>
+  </si>
+  <si>
+    <t>Edycja wartości kolumn</t>
+  </si>
+  <si>
+    <t>kostium.loc[ kostium['1'] == 'Harley Quinn', 'Nowa'] = 1</t>
+  </si>
+  <si>
+    <t>Zmiana nazwy kolumn</t>
+  </si>
+  <si>
+    <t>kostium.rename(columns={'1':'Pierwszy', '2':'Drugi'})</t>
+  </si>
+  <si>
+    <t>Usunięcie kolumny</t>
+  </si>
+  <si>
+    <t>kostium.drop('Nowa', axis=1)</t>
+  </si>
+  <si>
+    <t>Połączenie kolumn</t>
+  </si>
+  <si>
+    <t>kostium['Połączone'] = kostium['3'] + ' | ' + kostium['4']</t>
+  </si>
+  <si>
+    <t>nowa kolumna</t>
+  </si>
+  <si>
+    <t>Rozdzielenie kolumn</t>
+  </si>
+  <si>
+    <r>
+      <t>kostium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>[[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>'Trzeci'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>'Czwarty'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> = kostium.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Po</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>łączone.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>split</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>'|'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>,expand=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12.1"/>
+        <color rgb="FF286491"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>na podstawie znaku</t>
+  </si>
+  <si>
+    <t>apply(nazwa funkcji)</t>
+  </si>
+  <si>
+    <t>pozwala uruchomić funkcję dla każdej komórki</t>
+  </si>
+  <si>
+    <t>dfr.Wyniktxt = dfr.Wynik.apply(abc)</t>
+  </si>
+  <si>
+    <t>wpisanie w wartości kolumny, funkcję wykorzystującą dane z innej kolumny</t>
+  </si>
+  <si>
+    <t>wiersz['Osoba'].split(' ')</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">def </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>rozdziel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>wiersz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>wiersz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'Imie'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>, wiersz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'nazwisko'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve"> = wiersz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'Osoba'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>split</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>' '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve"> wiersz</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>df = df.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>apply</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>rozdziel, axis=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF009999"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,6 +1672,68 @@
       <color rgb="FF4A4E57"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12.1"/>
+      <color rgb="FF2F3235"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="12.1"/>
+      <color rgb="FF0086B3"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="12.1"/>
+      <color rgb="FF777777"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.1"/>
+      <color rgb="FF286491"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="12.1"/>
+      <color rgb="FF009999"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.1"/>
+      <color rgb="FF286491"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12.1"/>
+      <color rgb="FFDD1144"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12.1"/>
+      <color rgb="FFDD1144"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="12.1"/>
+      <color rgb="FF009999"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -764,10 +1752,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -778,11 +1767,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1083,10 +2078,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Arkusz1"/>
-  <dimension ref="A1:C157"/>
+  <dimension ref="A1:C204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="A157" sqref="A157"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="A201" sqref="A201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1284,7 +2279,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" ht="30">
       <c r="A25" s="2" t="s">
         <v>136</v>
       </c>
@@ -1771,8 +2766,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="60">
-      <c r="A113" s="6" t="s">
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
         <v>185</v>
       </c>
       <c r="B113" t="s">
@@ -1829,63 +2824,63 @@
         <v>172</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="18">
-      <c r="A124" s="5" t="s">
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="18">
-      <c r="A125" s="5" t="s">
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="18">
-      <c r="A126" s="5" t="s">
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="18">
-      <c r="A127" s="5" t="s">
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="18">
-      <c r="A128" s="5" t="s">
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="18">
-      <c r="A130" s="5" t="s">
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="18">
-      <c r="A131" s="5" t="s">
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="18">
-      <c r="A132" s="5" t="s">
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="18">
-      <c r="A133" s="5" t="s">
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="18">
-      <c r="A134" s="5" t="s">
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="18">
-      <c r="A135" s="5" t="s">
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="18">
-      <c r="A137" s="5" t="s">
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
         <v>187</v>
       </c>
       <c r="B137" t="s">
@@ -1893,136 +2888,385 @@
       </c>
     </row>
     <row r="138" spans="1:2" ht="15.75">
-      <c r="A138" s="4" t="s">
+      <c r="A138" t="s">
         <v>192</v>
       </c>
       <c r="B138" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="18">
-      <c r="A139" s="5" t="s">
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
         <v>190</v>
       </c>
       <c r="B139" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="36">
-      <c r="A140" s="5" t="s">
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="36">
-      <c r="A142" s="5" t="s">
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
         <v>195</v>
       </c>
       <c r="B142" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="18">
-      <c r="A143" s="5" t="s">
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="36">
-      <c r="A144" s="5" t="s">
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
         <v>197</v>
       </c>
     </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>221</v>
+      </c>
+      <c r="B145" t="s">
+        <v>222</v>
+      </c>
+    </row>
     <row r="146" spans="1:2" ht="72">
-      <c r="A146" s="5" t="s">
+      <c r="A146" t="s">
         <v>199</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="36">
-      <c r="A147" s="5" t="s">
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>220</v>
+      </c>
+      <c r="B147" t="s">
         <v>200</v>
       </c>
-      <c r="B147" t="s">
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" ht="18">
-      <c r="A149" s="5" t="s">
+      <c r="B149" t="s">
         <v>202</v>
       </c>
-      <c r="B149" t="s">
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" ht="18">
-      <c r="A150" s="5" t="s">
+      <c r="B150" t="s">
         <v>204</v>
       </c>
-      <c r="B150" t="s">
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" ht="36">
-      <c r="A151" s="5" t="s">
+      <c r="B151" t="s">
         <v>206</v>
       </c>
-      <c r="B151" t="s">
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" ht="36">
-      <c r="A152" s="5" t="s">
+      <c r="B152" t="s">
         <v>208</v>
       </c>
-      <c r="B152" t="s">
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" ht="18">
-      <c r="A153" s="5" t="s">
+      <c r="B153" t="s">
         <v>210</v>
       </c>
-      <c r="B153" t="s">
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>212</v>
+      </c>
+      <c r="B154" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="36">
-      <c r="A154" s="5" t="s">
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
         <v>213</v>
       </c>
-      <c r="B154" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="18">
-      <c r="A155" s="5" t="s">
+      <c r="B155" t="s">
         <v>214</v>
       </c>
-      <c r="B155" t="s">
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" ht="18">
-      <c r="A156" s="5" t="s">
+      <c r="B156" t="s">
         <v>216</v>
       </c>
-      <c r="B156" t="s">
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" ht="18">
-      <c r="A157" s="5" t="s">
+      <c r="B157" t="s">
         <v>218</v>
       </c>
-      <c r="B157" t="s">
+    </row>
+    <row r="158" spans="1:2" ht="15.75">
+      <c r="A158" t="s">
+        <v>223</v>
+      </c>
+      <c r="B158" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>226</v>
+      </c>
+      <c r="B159" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="15.75">
+      <c r="A160" t="s">
+        <v>227</v>
+      </c>
+      <c r="B160" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="15.75">
+      <c r="A162" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>231</v>
+      </c>
+      <c r="B163" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>233</v>
+      </c>
+      <c r="B164" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>235</v>
+      </c>
+      <c r="B165" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="15.75">
+      <c r="A166" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B166" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="6" t="s">
         <v>219</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="15.75">
+      <c r="A169" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B169" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="16.5">
+      <c r="A170" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="16.5">
+      <c r="A171" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="15.75">
+      <c r="A172" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>242</v>
+      </c>
+      <c r="B173" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="15.75">
+      <c r="A174" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="15.75">
+      <c r="A175" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B175" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="15.75">
+      <c r="A176" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B176" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="15.75">
+      <c r="A177" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="15.75">
+      <c r="A179" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="15.75">
+      <c r="A180" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>263</v>
+      </c>
+      <c r="B194" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="16.5">
+      <c r="A195" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="15.75">
+      <c r="A200" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="7"/>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>266</v>
+      </c>
+      <c r="B203" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>268</v>
+      </c>
+      <c r="B204" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
+  <hyperlinks>
+    <hyperlink ref="A167" r:id="rId1" display="https://www.facebook.com/JustJoinIT/videos/1056723045270675"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/phyton komendy.xlsx
+++ b/phyton komendy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="277">
   <si>
     <t>print ()</t>
   </si>
@@ -1624,6 +1624,12 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>sortowanie</t>
+  </si>
+  <si>
+    <t>nazwa_arkusza.sort_values(['kolumna1','kolumna2'], ascending=[1,0])</t>
   </si>
 </sst>
 </file>
@@ -2078,10 +2084,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Arkusz1"/>
-  <dimension ref="A1:C204"/>
+  <dimension ref="A1:C206"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="A201" sqref="A201"/>
+      <selection activeCell="A185" sqref="A185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3163,100 +3169,113 @@
         <v>253</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
-      <c r="A182" t="s">
+    <row r="181" spans="1:2" ht="15.75">
+      <c r="A181" s="4"/>
+    </row>
+    <row r="182" spans="1:2" ht="15.75">
+      <c r="A182" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="15.75">
+      <c r="A183" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>263</v>
-      </c>
-      <c r="B194" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="16.5">
-      <c r="A195" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
+        <v>263</v>
+      </c>
+      <c r="B196" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="16.5">
+      <c r="A197" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="7" t="s">
+    <row r="200" spans="1:2">
+      <c r="A200" s="7" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="15.75">
-      <c r="A200" s="9" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="15.75">
+      <c r="A202" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
-      <c r="A202" s="7"/>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" t="s">
+    <row r="204" spans="1:2">
+      <c r="A204" s="7"/>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
         <v>266</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B205" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
-      <c r="A204" t="s">
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
         <v>268</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B206" t="s">
         <v>269</v>
       </c>
     </row>

--- a/phyton komendy.xlsx
+++ b/phyton komendy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="327">
   <si>
     <t>print ()</t>
   </si>
@@ -1630,13 +1630,1033 @@
   </si>
   <si>
     <t>nazwa_arkusza.sort_values(['kolumna1','kolumna2'], ascending=[1,0])</t>
+  </si>
+  <si>
+    <t>Zmiana kolejności kolumn</t>
+  </si>
+  <si>
+    <t>Sprawdzenie kolejności kolumn</t>
+  </si>
+  <si>
+    <t>cols = list(df.columns.values)</t>
+  </si>
+  <si>
+    <t>df = df[['B', 'C', 'A']]</t>
+  </si>
+  <si>
+    <t>order = [1,2,3,0] # setting column's order</t>
+  </si>
+  <si>
+    <t>df = df[[df.columns[i] for i in order]]</t>
+  </si>
+  <si>
+    <t>Usunięcie wiersza</t>
+  </si>
+  <si>
+    <r>
+      <t>films = films.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>drop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF009999"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>films = films.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>drop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>columns=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>'*Image'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>films.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>mean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>średnia z danej kolumny</t>
+  </si>
+  <si>
+    <t>Typ danych w Python Pandas DataFrame</t>
+  </si>
+  <si>
+    <t>Odpowiednik w Python</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>String (łańcuch znaków)</t>
+  </si>
+  <si>
+    <t>int64</t>
+  </si>
+  <si>
+    <t>Integer (liczba całkowita)</t>
+  </si>
+  <si>
+    <t>float64</t>
+  </si>
+  <si>
+    <t>Float (liczba rzeczywiste)</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>bool (True lub False)</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>zmiana typu danych na inny</t>
+  </si>
+  <si>
+    <r>
+      <t>films.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>Length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve"> = pd.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>to_numeric</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>films.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>Length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>films.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>dtypes</t>
+    </r>
+  </si>
+  <si>
+    <t>df.dtypes</t>
+  </si>
+  <si>
+    <t>typy danych w kolumnach</t>
+  </si>
+  <si>
+    <t>films.Popularity = films.Popularity.astype('float64')</t>
+  </si>
+  <si>
+    <t>pozwala zamienić każdy typ danych na każdy inny</t>
+  </si>
+  <si>
+    <t>zamiana typu na numeryczny</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">def </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>zamien</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>wartosc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve"> wartosc == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'No'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12.1"/>
+        <color rgb="FF286491"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12.1"/>
+        <color rgb="FF286491"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>False</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve"> wartosc == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'Yes'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12.1"/>
+        <color rgb="FF286491"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12.1"/>
+        <color rgb="FF286491"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>True</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>films.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>Awards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve"> = films.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>Awards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>apply</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>zamien</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>zmiana typu poprzez apply</t>
+  </si>
+  <si>
+    <t> read_csv() jest to możliwe korzystając z dodatkowych parametrów takich jak:</t>
+  </si>
+  <si>
+    <t>dtype, który zdefiniuje nam od razu typy kolumn,</t>
+  </si>
+  <si>
+    <t>skiprows, który umożliwi nam ominięcie pierwszego, problematycznego wiersza.</t>
+  </si>
+  <si>
+    <t>usecols, gdzie możemy podać interesujące nas kolumny</t>
+  </si>
+  <si>
+    <t>czy też converters, który umożliwia nam zastosowanie apply</t>
+  </si>
+  <si>
+    <r>
+      <t>films = pd.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>read_csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'https://analityk.edu.pl/wp-content/uploads/2020/12/film.csv'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>sep=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>';'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">encoding = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>"ISO-8859-1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>skiprows=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF009999"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>dtype=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'Length'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'float64'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'Popularity'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'float64'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>usecols=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'Year'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'Length'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'Title'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'Subject'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'Popularity'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'Awards'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>converters=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'Awards'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>:zamien</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>})</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>converters=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'Awards'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve">:lambda x: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12.1"/>
+        <color rgb="FF286491"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12.1"/>
+        <color rgb="FF286491"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve"> x == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'Yes'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12.1"/>
+        <color rgb="FF286491"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12.1"/>
+        <color rgb="FF286491"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>})</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1740,13 +2760,31 @@
       <color rgb="FF009999"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF4A4E57"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1762,7 +2800,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -1780,6 +2818,24 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2084,10 +3140,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Arkusz1"/>
-  <dimension ref="A1:C206"/>
+  <dimension ref="A1:C268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="A185" sqref="A185"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="B272" sqref="B272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2990,299 +4046,584 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="B153" t="s">
-        <v>210</v>
+        <v>305</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B154" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B155" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B156" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
+        <v>215</v>
+      </c>
+      <c r="B157" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
         <v>217</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B158" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="15.75">
-      <c r="A158" t="s">
+    <row r="159" spans="1:2" ht="15.75">
+      <c r="A159" t="s">
         <v>223</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B159" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="s">
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
         <v>226</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B160" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="15.75">
-      <c r="A160" t="s">
+    <row r="161" spans="1:2" ht="15.75">
+      <c r="A161" t="s">
         <v>227</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B161" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="s">
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="15.75">
-      <c r="A162" t="s">
+    <row r="163" spans="1:2" ht="15.75">
+      <c r="A163" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" t="s">
-        <v>231</v>
-      </c>
-      <c r="B163" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B164" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
+        <v>233</v>
+      </c>
+      <c r="B165" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
         <v>235</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B166" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="15.75">
-      <c r="A166" s="4" t="s">
+    <row r="167" spans="1:2" ht="15.75">
+      <c r="A167" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B167" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="6" t="s">
+    <row r="168" spans="1:2">
+      <c r="A168" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="15.75">
-      <c r="A169" s="4" t="s">
+    <row r="170" spans="1:2" ht="15.75">
+      <c r="A170" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B170" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="16.5">
-      <c r="A170" s="4" t="s">
+    <row r="171" spans="1:2" ht="16.5">
+      <c r="A171" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="16.5">
-      <c r="A171" s="8" t="s">
+    <row r="172" spans="1:2" ht="16.5">
+      <c r="A172" s="8" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="15.75">
-      <c r="A172" s="4" t="s">
+    <row r="173" spans="1:2" ht="15.75">
+      <c r="A173" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
-      <c r="A173" t="s">
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
         <v>242</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B174" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="15.75">
-      <c r="A174" s="4" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15.75">
       <c r="A175" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B175" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15.75">
       <c r="A176" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B176" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15.75">
       <c r="A177" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B177" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="15.75">
+      <c r="A178" s="4" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="15.75">
-      <c r="A179" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="15.75">
       <c r="A180" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="15.75">
+      <c r="A181" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="15.75">
-      <c r="A181" s="4"/>
-    </row>
     <row r="182" spans="1:2" ht="15.75">
-      <c r="A182" s="4" t="s">
-        <v>275</v>
-      </c>
+      <c r="A182" s="4"/>
     </row>
     <row r="183" spans="1:2" ht="15.75">
       <c r="A183" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="15.75">
+      <c r="A184" s="4" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="15.75">
+      <c r="A192" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" t="s">
-        <v>260</v>
+      <c r="B192" s="4" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" t="s">
-        <v>263</v>
-      </c>
-      <c r="B196" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="16.5">
-      <c r="A197" s="4" t="s">
-        <v>264</v>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="15.75">
+      <c r="A195" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="15.75">
+      <c r="A196" s="4"/>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>263</v>
+      </c>
+      <c r="B200" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="16.5">
+      <c r="A201" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="7" t="s">
+    <row r="204" spans="1:2">
+      <c r="A204" s="7" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="7" t="s">
+    <row r="205" spans="1:2">
+      <c r="A205" s="7" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="15.75">
-      <c r="A202" s="9" t="s">
+    <row r="206" spans="1:2" ht="15.75">
+      <c r="A206" s="9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="7" t="s">
+    <row r="207" spans="1:2">
+      <c r="A207" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="7"/>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" t="s">
+    <row r="208" spans="1:2">
+      <c r="A208" s="7"/>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
         <v>266</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B209" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
-      <c r="A206" t="s">
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
         <v>268</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B210" t="s">
         <v>269</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>277</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>280</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="15.75">
+      <c r="A218" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B218" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B221" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>306</v>
+      </c>
+      <c r="B223" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="36">
+      <c r="A227" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B227" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="18">
+      <c r="A228" s="12"/>
+      <c r="B228" s="12"/>
+    </row>
+    <row r="229" spans="1:2" ht="36">
+      <c r="A229" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="B229" s="13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="36">
+      <c r="A230" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="B230" s="13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="36">
+      <c r="A231" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B231" s="13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="18">
+      <c r="A232" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="B232" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="18">
+      <c r="A233" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B233" s="13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="18">
+      <c r="A234" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B234" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="36">
+      <c r="A237" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B237" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="15.75">
+      <c r="A238" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="15.75">
+      <c r="A239" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" ht="72">
+      <c r="A244" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="14"/>
+    </row>
+    <row r="246" spans="1:1" ht="36">
+      <c r="A246" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" ht="90">
+      <c r="A247" s="15" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" ht="54">
+      <c r="A248" s="15" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" ht="54">
+      <c r="A249" s="15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" ht="15.75">
+      <c r="A252" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" ht="15.75">
+      <c r="A253" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" ht="15.75">
+      <c r="A268" s="7" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <hyperlinks>
-    <hyperlink ref="A167" r:id="rId1" display="https://www.facebook.com/JustJoinIT/videos/1056723045270675"/>
+    <hyperlink ref="A168" r:id="rId1" display="https://www.facebook.com/JustJoinIT/videos/1056723045270675"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/phyton komendy.xlsx
+++ b/phyton komendy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="342">
   <si>
     <t>print ()</t>
   </si>
@@ -2650,6 +2650,274 @@
       </rPr>
       <t>})</t>
     </r>
+  </si>
+  <si>
+    <t>zliczenie wierszy</t>
+  </si>
+  <si>
+    <t>nazwa_tabeli.count()</t>
+  </si>
+  <si>
+    <t>zliczanie wg klucza</t>
+  </si>
+  <si>
+    <t>nazwa_tabeli.groupby('nazwa kolumny').count()</t>
+  </si>
+  <si>
+    <t>nie niczy NaN</t>
+  </si>
+  <si>
+    <t>średnia z kolumny lub wg klucza</t>
+  </si>
+  <si>
+    <t>film.groupby('Year').Popularity.mean()</t>
+  </si>
+  <si>
+    <t>.mean()</t>
+  </si>
+  <si>
+    <t>nazwa_tabeli.groupby('nazwa kolumny','nazwa kolumny2').count()</t>
+  </si>
+  <si>
+    <t>przed operacją statystyczną nazwa kolumny z danymi</t>
+  </si>
+  <si>
+    <r>
+      <t>films.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>groupby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>'Year'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>agg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>({</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>'Popularity'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>'min'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>'max'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>'Length'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>'min'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>'max'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>]})</t>
+    </r>
+  </si>
+  <si>
+    <t>.agg(mininalna_popularnosc=('Popularity','min'),
+                          maksymalna_popularnosc=('Popularity','max'))</t>
+  </si>
+  <si>
+    <t>z nazwami kolumn</t>
+  </si>
+  <si>
+    <t>agg()</t>
+  </si>
+  <si>
+    <t>.agg(nazwa_nowej_kolumny=('z_jakiej_kolumny_dane','min'),</t>
   </si>
 </sst>
 </file>
@@ -2800,7 +3068,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -2836,6 +3104,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3140,15 +3411,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Arkusz1"/>
-  <dimension ref="A1:C268"/>
+  <dimension ref="A1:C283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="B272" sqref="B272"/>
+    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
+      <selection activeCell="A274" sqref="A274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
     <col min="2" max="2" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4618,6 +4889,76 @@
     <row r="268" spans="1:1" ht="15.75">
       <c r="A268" s="7" t="s">
         <v>326</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B274" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="7"/>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B277" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="B279" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>340</v>
+      </c>
+      <c r="B281" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="15.75">
+      <c r="A282" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="45">
+      <c r="A283" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="B283" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/phyton komendy.xlsx
+++ b/phyton komendy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="361">
   <si>
     <t>print ()</t>
   </si>
@@ -2676,9 +2676,6 @@
     <t>.mean()</t>
   </si>
   <si>
-    <t>nazwa_tabeli.groupby('nazwa kolumny','nazwa kolumny2').count()</t>
-  </si>
-  <si>
     <t>przed operacją statystyczną nazwa kolumny z danymi</t>
   </si>
   <si>
@@ -2918,13 +2915,311 @@
   </si>
   <si>
     <t>.agg(nazwa_nowej_kolumny=('z_jakiej_kolumny_dane','min'),</t>
+  </si>
+  <si>
+    <t>nazwa_tabeli.groupby(['nazwa kolumny','nazwa kolumny2']).count()</t>
+  </si>
+  <si>
+    <t>grupowanie, nazwa tabeli[warunki].groupby(zasady wg czego grupowac).kolumna.funkcja</t>
+  </si>
+  <si>
+    <t>tabela przestawna - pivot table z funkcją unstack()</t>
+  </si>
+  <si>
+    <r>
+      <t>x = films.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>groupby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'Year'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'Subject'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>])</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>agg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve">avg_popularity = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'Popularity'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'mean'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>unstack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>pd.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>pivot_table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve">films, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>index=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'Year'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>columns=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'Subject'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>values=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'Popularity'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>aggfunc=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FFDD1144"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>'mean'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>index – czyli która kolumna ma być po lewej stronie w wierszach, jako nasz index</t>
+  </si>
+  <si>
+    <t>columns – która kolumna ma utworzyć szereg nowych kolumn, na górze</t>
+  </si>
+  <si>
+    <t>values – wynik operacji na której kolumnie ma byś widoczny 'wewnątrz’ naszej tabeli przestawnej</t>
+  </si>
+  <si>
+    <t>aggfunc – jaką operację chcemy przeprowadzić – mean, sum, count, max, min itp</t>
+  </si>
+  <si>
+    <t>x.unstack(fill_value='')</t>
+  </si>
+  <si>
+    <t>wypełnia wartości puste znakami w nawiasie</t>
+  </si>
+  <si>
+    <t>zamiana wartości</t>
+  </si>
+  <si>
+    <t>x=x.zmienna.apply(lambda x: 'Bardzo popularny' if x &gt; 60 else 'Niszowy')</t>
+  </si>
+  <si>
+    <t>margins=True</t>
+  </si>
+  <si>
+    <t>dodaje sumy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3040,6 +3335,13 @@
       <color rgb="FF4A4E57"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFE83E8C"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3068,7 +3370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -3108,6 +3410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -3411,10 +3714,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Arkusz1"/>
-  <dimension ref="A1:C283"/>
+  <dimension ref="A1:C299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="A274" sqref="A274"/>
+    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="A298" sqref="A298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4778,7 +5081,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="244" spans="1:1" ht="72">
+    <row r="244" spans="1:1" ht="36">
       <c r="A244" s="15" t="s">
         <v>314</v>
       </c>
@@ -4791,17 +5094,17 @@
         <v>315</v>
       </c>
     </row>
-    <row r="247" spans="1:1" ht="90">
+    <row r="247" spans="1:1" ht="54">
       <c r="A247" s="15" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="248" spans="1:1" ht="54">
+    <row r="248" spans="1:1" ht="36">
       <c r="A248" s="15" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="249" spans="1:1" ht="54">
+    <row r="249" spans="1:1" ht="36">
       <c r="A249" s="15" t="s">
         <v>318</v>
       </c>
@@ -4901,64 +5204,150 @@
         <v>328</v>
       </c>
     </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="7"/>
+    </row>
     <row r="273" spans="1:2">
       <c r="A273" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="B274" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="276" spans="1:2">
-      <c r="A276" s="7"/>
+      <c r="A276" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B276" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="7"/>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B279" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
-      <c r="A278" s="7" t="s">
+    <row r="280" spans="1:2">
+      <c r="A280" s="7" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
-      <c r="B279" t="s">
+    <row r="281" spans="1:2">
+      <c r="B281" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>339</v>
+      </c>
+      <c r="B283" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="15.75">
+      <c r="A284" s="4" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
-      <c r="A281" t="s">
-        <v>340</v>
-      </c>
-      <c r="B281" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" ht="15.75">
-      <c r="A282" s="4" t="s">
+    <row r="285" spans="1:2" ht="45">
+      <c r="A285" s="16" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" ht="45">
-      <c r="A283" s="16" t="s">
+      <c r="B285" t="s">
         <v>338</v>
       </c>
-      <c r="B283" t="s">
-        <v>339</v>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B290" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="90">
+      <c r="A293" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B293" s="15" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="72">
+      <c r="A294" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B294" s="15" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="108">
+      <c r="A295" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B295" s="15" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="90">
+      <c r="A296" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B296" s="15" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="18">
+      <c r="A297" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="B297" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="7" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/phyton komendy.xlsx
+++ b/phyton komendy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="377">
   <si>
     <t>print ()</t>
   </si>
@@ -351,9 +351,6 @@
   </si>
   <si>
     <t>dużymi literami</t>
-  </si>
-  <si>
-    <t>wświetlenie na ekran, jak więcej linii to więcej apostrofów, tyle ile ma być linii</t>
   </si>
   <si>
     <t>print('\n')</t>
@@ -3213,13 +3210,139 @@
   </si>
   <si>
     <t>dodaje sumy</t>
+  </si>
+  <si>
+    <t>tworzenie tabel z palca</t>
+  </si>
+  <si>
+    <t>age = pd.DataFrame({'Name':['Michał', 'Adam', 'Ewa', 'Jakub'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    'Age':[39,28,19,32]})</t>
+  </si>
+  <si>
+    <r>
+      <t>age_new = pd.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>concat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF2F3235"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>age, age2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF777777"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>])</t>
+    </r>
+  </si>
+  <si>
+    <t>z oznaczeniem co pochodzi z czego - keys</t>
+  </si>
+  <si>
+    <t>age_new = pd.concat([age, age2], keys=['age', 'age2'])</t>
+  </si>
+  <si>
+    <t>łączenie zbiorów - dodanie pozycji do siebie</t>
+  </si>
+  <si>
+    <t>łączenie zbiorów - dodanie nowych kolumn pasujących do klucza</t>
+  </si>
+  <si>
+    <t>Merge, inner, czyli tylko część wspólna</t>
+  </si>
+  <si>
+    <t>pd.merge(age_new, city, on='Kolumna_wspolna', how='inner')</t>
+  </si>
+  <si>
+    <t>Merge, outer, czyli wszystkie dane, puste pola wypełniane NaN</t>
+  </si>
+  <si>
+    <t>pd.merge(age_new, city, on='Name', how='outer')</t>
+  </si>
+  <si>
+    <r>
+      <t>Merge, left,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF4A4E57"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t> czyli wszystkie dane z lewego zbiory danych</t>
+    </r>
+  </si>
+  <si>
+    <t>pd.merge(age_new, city, on='Name', how='left')</t>
+  </si>
+  <si>
+    <r>
+      <t>Merge, right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF4A4E57"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, czyli wszystkie dane z prawego zbiory danych</t>
+    </r>
+  </si>
+  <si>
+    <t>pd.merge(age_new, city, on='Name', how='right')</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wświetlenie na ekran, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jak więcej linii to więcej apostrofów, tyle ile ma być linii</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3342,8 +3465,23 @@
       <family val="3"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF4A4E57"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3353,6 +3491,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3370,7 +3520,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -3411,6 +3561,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -3714,10 +3873,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Arkusz1"/>
-  <dimension ref="A1:C299"/>
+  <dimension ref="A1:C323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
-      <selection activeCell="A298" sqref="A298"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3727,18 +3886,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B1" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="20" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3747,15 +3906,15 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
         <v>113</v>
-      </c>
-      <c r="B4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3768,10 +3927,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
         <v>115</v>
-      </c>
-      <c r="B6" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3824,34 +3983,34 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" t="s">
         <v>121</v>
-      </c>
-      <c r="B13" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" t="s">
         <v>119</v>
-      </c>
-      <c r="B14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" t="s">
         <v>125</v>
-      </c>
-      <c r="B15" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" t="s">
         <v>123</v>
-      </c>
-      <c r="B16" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3896,32 +4055,32 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" t="s">
         <v>134</v>
-      </c>
-      <c r="B22" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
       <c r="A25" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="21" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3935,10 +4094,10 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" t="s">
         <v>140</v>
-      </c>
-      <c r="B28" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3978,10 +4137,10 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" t="s">
         <v>132</v>
-      </c>
-      <c r="B34" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4034,7 +4193,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4047,35 +4206,35 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" t="s">
         <v>142</v>
-      </c>
-      <c r="B43" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4128,7 +4287,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -4198,9 +4357,10 @@
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" t="s">
+      <c r="A70" s="22" t="s">
         <v>56</v>
       </c>
+      <c r="B70" s="22"/>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
@@ -4326,18 +4486,18 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B88" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B89" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -4352,459 +4512,459 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
+        <v>149</v>
+      </c>
+      <c r="B106" t="s">
         <v>150</v>
-      </c>
-      <c r="B106" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
+        <v>151</v>
+      </c>
+      <c r="B107" t="s">
         <v>152</v>
-      </c>
-      <c r="B107" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="B108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="B109" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="C110" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="C111" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
+        <v>158</v>
+      </c>
+      <c r="B112" t="s">
         <v>159</v>
-      </c>
-      <c r="B112" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
+        <v>184</v>
+      </c>
+      <c r="B113" t="s">
         <v>185</v>
-      </c>
-      <c r="B113" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
+        <v>160</v>
+      </c>
+      <c r="B115" t="s">
         <v>161</v>
-      </c>
-      <c r="B115" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
+        <v>162</v>
+      </c>
+      <c r="B116" t="s">
         <v>163</v>
-      </c>
-      <c r="B116" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B118" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
+        <v>167</v>
+      </c>
+      <c r="B119" t="s">
         <v>168</v>
-      </c>
-      <c r="B119" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B121" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
+        <v>186</v>
+      </c>
+      <c r="B137" t="s">
         <v>187</v>
-      </c>
-      <c r="B137" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15.75">
       <c r="A138" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B138" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
+        <v>189</v>
+      </c>
+      <c r="B139" t="s">
         <v>190</v>
-      </c>
-      <c r="B139" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B142" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
+        <v>220</v>
+      </c>
+      <c r="B145" t="s">
         <v>221</v>
-      </c>
-      <c r="B145" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="72">
       <c r="A146" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B147" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
+        <v>200</v>
+      </c>
+      <c r="B149" t="s">
         <v>201</v>
-      </c>
-      <c r="B149" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
+        <v>202</v>
+      </c>
+      <c r="B150" t="s">
         <v>203</v>
-      </c>
-      <c r="B150" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
+        <v>204</v>
+      </c>
+      <c r="B151" t="s">
         <v>205</v>
-      </c>
-      <c r="B151" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
+        <v>206</v>
+      </c>
+      <c r="B152" t="s">
         <v>207</v>
-      </c>
-      <c r="B152" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
+        <v>303</v>
+      </c>
+      <c r="B153" t="s">
         <v>304</v>
-      </c>
-      <c r="B153" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
+        <v>208</v>
+      </c>
+      <c r="B154" t="s">
         <v>209</v>
-      </c>
-      <c r="B154" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B155" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
+        <v>212</v>
+      </c>
+      <c r="B156" t="s">
         <v>213</v>
-      </c>
-      <c r="B156" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
+        <v>214</v>
+      </c>
+      <c r="B157" t="s">
         <v>215</v>
-      </c>
-      <c r="B157" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
+        <v>216</v>
+      </c>
+      <c r="B158" t="s">
         <v>217</v>
-      </c>
-      <c r="B158" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="15.75">
       <c r="A159" t="s">
+        <v>222</v>
+      </c>
+      <c r="B159" t="s">
         <v>223</v>
-      </c>
-      <c r="B159" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B160" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15.75">
       <c r="A161" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B161" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15.75">
       <c r="A163" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
+        <v>230</v>
+      </c>
+      <c r="B164" t="s">
         <v>231</v>
-      </c>
-      <c r="B164" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
+        <v>232</v>
+      </c>
+      <c r="B165" t="s">
         <v>233</v>
-      </c>
-      <c r="B165" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
+        <v>234</v>
+      </c>
+      <c r="B166" t="s">
         <v>235</v>
-      </c>
-      <c r="B166" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15.75">
       <c r="A167" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B167" t="s">
         <v>237</v>
-      </c>
-      <c r="B167" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="15.75">
       <c r="A170" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B170" t="s">
         <v>239</v>
-      </c>
-      <c r="B170" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="16.5">
       <c r="A171" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="16.5">
       <c r="A172" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="15.75">
       <c r="A173" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
+        <v>241</v>
+      </c>
+      <c r="B174" t="s">
         <v>242</v>
-      </c>
-      <c r="B174" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15.75">
       <c r="A175" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15.75">
       <c r="A176" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B176" t="s">
         <v>246</v>
-      </c>
-      <c r="B176" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15.75">
       <c r="A177" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B177" t="s">
         <v>248</v>
-      </c>
-      <c r="B177" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="15.75">
       <c r="A178" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="15.75">
       <c r="A180" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15.75">
       <c r="A181" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15.75">
@@ -4812,55 +4972,55 @@
     </row>
     <row r="183" spans="1:2" ht="15.75">
       <c r="A183" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="15.75">
       <c r="A184" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="15.75">
       <c r="A192" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="15.75">
       <c r="A195" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="15.75">
@@ -4868,50 +5028,50 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B200" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="16.5">
       <c r="A201" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="15.75">
       <c r="A206" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -4919,86 +5079,86 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
+        <v>265</v>
+      </c>
+      <c r="B209" t="s">
         <v>266</v>
-      </c>
-      <c r="B209" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
+        <v>267</v>
+      </c>
+      <c r="B210" t="s">
         <v>268</v>
-      </c>
-      <c r="B210" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="15.75">
       <c r="A218" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B218" t="s">
         <v>286</v>
-      </c>
-      <c r="B218" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B221" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
+        <v>305</v>
+      </c>
+      <c r="B223" t="s">
         <v>306</v>
-      </c>
-      <c r="B223" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="36">
       <c r="A227" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B227" s="11" t="s">
         <v>288</v>
-      </c>
-      <c r="B227" s="11" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="18">
@@ -5007,83 +5167,83 @@
     </row>
     <row r="229" spans="1:2" ht="36">
       <c r="A229" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="B229" s="13" t="s">
         <v>290</v>
-      </c>
-      <c r="B229" s="13" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="36">
       <c r="A230" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="B230" s="13" t="s">
         <v>292</v>
-      </c>
-      <c r="B230" s="13" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="36">
       <c r="A231" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B231" s="13" t="s">
         <v>294</v>
-      </c>
-      <c r="B231" s="13" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="18">
       <c r="A232" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B232" s="13" t="s">
         <v>296</v>
-      </c>
-      <c r="B232" s="13" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="18">
       <c r="A233" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B233" s="13" t="s">
         <v>298</v>
-      </c>
-      <c r="B233" s="13" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="18">
       <c r="A234" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="36">
       <c r="A237" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B237" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="15.75">
       <c r="A238" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="15.75">
       <c r="A239" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="36">
       <c r="A244" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="245" spans="1:1">
@@ -5091,117 +5251,117 @@
     </row>
     <row r="246" spans="1:1" ht="36">
       <c r="A246" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="54">
       <c r="A247" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="36">
       <c r="A248" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="36">
       <c r="A249" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="15.75">
       <c r="A252" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="15.75">
       <c r="A253" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="15.75">
       <c r="A268" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="272" spans="1:1">
@@ -5209,25 +5369,25 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B276" t="s">
         <v>330</v>
-      </c>
-      <c r="B276" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -5235,119 +5395,199 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B279" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="B281" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
+        <v>338</v>
+      </c>
+      <c r="B283" t="s">
         <v>339</v>
-      </c>
-      <c r="B283" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="15.75">
       <c r="A284" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="45">
       <c r="A285" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="B285" t="s">
         <v>337</v>
-      </c>
-      <c r="B285" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B290" t="s">
         <v>355</v>
-      </c>
-      <c r="B290" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="90">
       <c r="A293" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B293" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="72">
       <c r="A294" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B294" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="108">
       <c r="A295" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B295" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="90">
       <c r="A296" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B296" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="18">
       <c r="A297" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="B297" s="15" t="s">
         <v>359</v>
-      </c>
-      <c r="B297" s="15" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" ht="15.75">
+      <c r="A306" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" ht="20.25">
+      <c r="A309" s="18" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" ht="36">
+      <c r="A319" s="19" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" ht="20.25">
+      <c r="A320" s="18" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" ht="36">
+      <c r="A322" s="19" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" ht="20.25">
+      <c r="A323" s="18" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>

--- a/phyton komendy.xlsx
+++ b/phyton komendy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="375">
   <si>
     <t>print ()</t>
   </si>
@@ -1805,9 +1805,6 @@
     </r>
   </si>
   <si>
-    <t>średnia z danej kolumny</t>
-  </si>
-  <si>
     <t>Typ danych w Python Pandas DataFrame</t>
   </si>
   <si>
@@ -3273,9 +3270,6 @@
   </si>
   <si>
     <t>łączenie zbiorów - dodanie pozycji do siebie</t>
-  </si>
-  <si>
-    <t>łączenie zbiorów - dodanie nowych kolumn pasujących do klucza</t>
   </si>
   <si>
     <t>Merge, inner, czyli tylko część wspólna</t>
@@ -3873,10 +3867,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Arkusz1"/>
-  <dimension ref="A1:C323"/>
+  <dimension ref="A1:C325"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A220" sqref="A220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3906,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4415,1185 +4409,1177 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>71</v>
-      </c>
-      <c r="B78" t="s">
-        <v>72</v>
-      </c>
-    </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B79" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="B81" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>78</v>
-      </c>
-      <c r="B82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
         <v>127</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B90" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
         <v>128</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B91" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
         <v>149</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B108" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
         <v>151</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B109" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="B108" t="s">
+    <row r="110" spans="1:3">
+      <c r="B110" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="B109" s="3" t="s">
+    <row r="111" spans="1:3">
+      <c r="B111" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C111" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="C110" t="s">
+    <row r="112" spans="1:3">
+      <c r="C112" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
-      <c r="C111" t="s">
+    <row r="113" spans="1:3">
+      <c r="C113" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
         <v>158</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B114" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
         <v>184</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B115" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
         <v>160</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B117" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
         <v>162</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B118" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
         <v>166</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B120" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
         <v>167</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B121" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
         <v>170</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B123" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>183</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>186</v>
-      </c>
-      <c r="B137" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="15.75">
-      <c r="A138" t="s">
-        <v>191</v>
-      </c>
-      <c r="B138" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
+        <v>186</v>
+      </c>
+      <c r="B139" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15.75">
+      <c r="A140" t="s">
+        <v>191</v>
+      </c>
+      <c r="B140" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
         <v>189</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B141" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>194</v>
-      </c>
-      <c r="B142" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>196</v>
+        <v>194</v>
+      </c>
+      <c r="B144" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>220</v>
-      </c>
-      <c r="B145" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="72">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>198</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B147" t="s">
-        <v>199</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="72">
+      <c r="A148" t="s">
+        <v>198</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="B149" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
-        <v>202</v>
-      </c>
-      <c r="B150" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B151" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B152" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="B153" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B154" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>211</v>
+        <v>302</v>
       </c>
       <c r="B155" t="s">
-        <v>210</v>
+        <v>303</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B156" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B157" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B158" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="15.75">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B159" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B160" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15.75">
       <c r="A161" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B161" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>227</v>
+        <v>225</v>
+      </c>
+      <c r="B162" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15.75">
       <c r="A163" t="s">
-        <v>228</v>
+        <v>226</v>
+      </c>
+      <c r="B163" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>230</v>
-      </c>
-      <c r="B164" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="15.75">
       <c r="A165" t="s">
-        <v>232</v>
-      </c>
-      <c r="B165" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
+        <v>230</v>
+      </c>
+      <c r="B166" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>232</v>
+      </c>
+      <c r="B167" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
         <v>234</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B168" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="15.75">
-      <c r="A167" s="4" t="s">
+    <row r="169" spans="1:2" ht="15.75">
+      <c r="A169" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B169" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="6" t="s">
+    <row r="170" spans="1:2">
+      <c r="A170" s="6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="15.75">
-      <c r="A170" s="4" t="s">
+    <row r="172" spans="1:2" ht="15.75">
+      <c r="A172" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B172" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="16.5">
-      <c r="A171" s="4" t="s">
+    <row r="173" spans="1:2" ht="16.5">
+      <c r="A173" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="16.5">
-      <c r="A172" s="8" t="s">
+    <row r="174" spans="1:2" ht="16.5">
+      <c r="A174" s="8" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="15.75">
-      <c r="A173" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" t="s">
-        <v>241</v>
-      </c>
-      <c r="B174" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15.75">
       <c r="A175" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="15.75">
-      <c r="A176" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>241</v>
       </c>
       <c r="B176" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15.75">
       <c r="A177" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B177" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="15.75">
       <c r="A178" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
+      </c>
+      <c r="B178" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="15.75">
+      <c r="A179" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B179" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="15.75">
       <c r="A180" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="15.75">
+      <c r="A182" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B182" s="4" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" ht="15.75">
-      <c r="A181" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="15.75">
-      <c r="A182" s="4"/>
     </row>
     <row r="183" spans="1:2" ht="15.75">
       <c r="A183" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="15.75">
+      <c r="A184" s="4"/>
+    </row>
+    <row r="185" spans="1:2" ht="15.75">
+      <c r="A185" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="15.75">
-      <c r="A184" s="4" t="s">
+    <row r="186" spans="1:2" ht="15.75">
+      <c r="A186" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
-      <c r="A185" t="s">
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="15.75">
-      <c r="A192" t="s">
+    <row r="194" spans="1:2" ht="15.75">
+      <c r="A194" t="s">
         <v>258</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B194" s="4" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
-      <c r="A194" t="s">
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="15.75">
-      <c r="A195" s="4" t="s">
+    <row r="197" spans="1:2" ht="15.75">
+      <c r="A197" s="4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="15.75">
-      <c r="A196" s="4"/>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" t="s">
+    <row r="198" spans="1:2" ht="15.75">
+      <c r="A198" s="4"/>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
         <v>259</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>262</v>
-      </c>
-      <c r="B200" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="16.5">
-      <c r="A201" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
+        <v>262</v>
+      </c>
+      <c r="B202" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="16.5">
+      <c r="A203" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="7" t="s">
+    <row r="206" spans="1:2">
+      <c r="A206" s="7" t="s">
         <v>270</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" ht="15.75">
-      <c r="A206" s="9" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="15.75">
+      <c r="A208" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="7" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="7"/>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" t="s">
+    <row r="210" spans="1:2">
+      <c r="A210" s="7"/>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
         <v>265</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B211" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" t="s">
-        <v>267</v>
-      </c>
-      <c r="B210" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
+        <v>267</v>
+      </c>
+      <c r="B212" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
         <v>276</v>
       </c>
-      <c r="B212" s="10" t="s">
+      <c r="B214" s="10" t="s">
         <v>280</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" t="s">
-        <v>279</v>
-      </c>
-      <c r="B213" s="10" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
+        <v>279</v>
+      </c>
+      <c r="B215" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
-      <c r="A216" t="s">
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="15.75">
-      <c r="A218" s="4" t="s">
+    <row r="220" spans="1:2" ht="15.75">
+      <c r="A220" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B218" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" t="s">
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="7" t="s">
         <v>300</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="B221" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" t="s">
-        <v>305</v>
       </c>
       <c r="B223" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="36">
-      <c r="A227" s="11" t="s">
+    <row r="224" spans="1:2">
+      <c r="A224" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>304</v>
+      </c>
+      <c r="B225" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="36">
+      <c r="A229" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="B229" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="B227" s="11" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" ht="18">
-      <c r="A228" s="12"/>
-      <c r="B228" s="12"/>
-    </row>
-    <row r="229" spans="1:2" ht="36">
-      <c r="A229" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="B229" s="13" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" ht="36">
-      <c r="A230" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B230" s="13" t="s">
-        <v>292</v>
-      </c>
+    </row>
+    <row r="230" spans="1:2" ht="18">
+      <c r="A230" s="12"/>
+      <c r="B230" s="12"/>
     </row>
     <row r="231" spans="1:2" ht="36">
       <c r="A231" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="B231" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="36">
+      <c r="A232" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="B232" s="13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="36">
+      <c r="A233" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="B233" s="13" t="s">
         <v>293</v>
-      </c>
-      <c r="B231" s="13" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" ht="18">
-      <c r="A232" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="B232" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" ht="18">
-      <c r="A233" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="B233" s="13" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="18">
       <c r="A234" s="13" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" ht="36">
-      <c r="A237" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="18">
+      <c r="A235" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="B235" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="18">
+      <c r="A236" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B236" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="36">
+      <c r="A239" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B239" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="15.75">
+      <c r="A240" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="B237" s="13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="15.75">
-      <c r="A238" s="9" t="s">
+    </row>
+    <row r="241" spans="1:1" ht="15.75">
+      <c r="A241" s="9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="15.75">
-      <c r="A239" s="9" t="s">
+    <row r="242" spans="1:1">
+      <c r="A242" s="7" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
-      <c r="A240" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" ht="36">
-      <c r="A244" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" s="14"/>
+    <row r="243" spans="1:1">
+      <c r="A243" s="7" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="246" spans="1:1" ht="36">
       <c r="A246" s="15" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" ht="54">
-      <c r="A247" s="15" t="s">
-        <v>315</v>
-      </c>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="14"/>
     </row>
     <row r="248" spans="1:1" ht="36">
       <c r="A248" s="15" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" ht="54">
+      <c r="A249" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" ht="36">
+      <c r="A250" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" ht="36">
+      <c r="A251" s="15" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="249" spans="1:1" ht="36">
-      <c r="A249" s="15" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" s="7" t="s">
+    <row r="253" spans="1:1">
+      <c r="A253" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" ht="15.75">
+      <c r="A254" s="9" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="252" spans="1:1" ht="15.75">
-      <c r="A252" s="9" t="s">
+    <row r="255" spans="1:1" ht="15.75">
+      <c r="A255" s="9" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" ht="15.75">
-      <c r="A253" s="9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="7" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" ht="15.75">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
       <c r="A268" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" ht="15.75">
+      <c r="A270" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="7" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="270" spans="1:1">
-      <c r="A270" s="7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1">
-      <c r="A271" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1">
-      <c r="A272" s="7"/>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="7" t="s">
-        <v>341</v>
-      </c>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="7"/>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="B276" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="7" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="278" spans="1:2">
-      <c r="A278" s="7"/>
+      <c r="A278" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B278" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="7"/>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B281" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="B279" t="s">
+    </row>
+    <row r="283" spans="1:2">
+      <c r="B283" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
-      <c r="A280" s="7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="B281" t="s">
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>337</v>
+      </c>
+      <c r="B285" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="15.75">
+      <c r="A286" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
-      <c r="A283" t="s">
-        <v>338</v>
-      </c>
-      <c r="B283" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" ht="15.75">
-      <c r="A284" s="4" t="s">
+    <row r="287" spans="1:2" ht="45">
+      <c r="A287" s="16" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" ht="45">
-      <c r="A285" s="16" t="s">
+      <c r="B287" t="s">
         <v>336</v>
       </c>
-      <c r="B285" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
-      <c r="A288" s="7" t="s">
-        <v>343</v>
-      </c>
     </row>
     <row r="289" spans="1:2">
-      <c r="A289" s="7" t="s">
-        <v>344</v>
+      <c r="A289" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="B290" t="s">
-        <v>355</v>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B292" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="90">
+      <c r="A295" s="7" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" ht="90">
-      <c r="A293" s="7" t="s">
+      <c r="B295" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="72">
+      <c r="A296" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="B293" s="15" t="s">
+      <c r="B296" s="15" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="72">
-      <c r="A294" s="7" t="s">
+    <row r="297" spans="1:2" ht="108">
+      <c r="A297" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="B294" s="15" t="s">
+      <c r="B297" s="15" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="108">
-      <c r="A295" s="7" t="s">
+    <row r="298" spans="1:2" ht="90">
+      <c r="A298" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="B295" s="15" t="s">
+      <c r="B298" s="15" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="90">
-      <c r="A296" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B296" s="15" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" ht="18">
-      <c r="A297" s="17" t="s">
+    <row r="299" spans="1:2" ht="18">
+      <c r="A299" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="B299" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="B297" s="15" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2">
-      <c r="A298" s="7" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
-      <c r="A299" s="7" t="s">
-        <v>357</v>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="7" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
         <v>360</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
-      <c r="A302" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2">
-      <c r="A303" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" ht="15.75">
+      <c r="A308" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" ht="20.25">
+      <c r="A311" s="18" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" t="s">
         <v>366</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" ht="15.75">
-      <c r="A306" s="4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1">
-      <c r="A308" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" ht="20.25">
-      <c r="A309" s="18" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1">
-      <c r="A311" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1">
-      <c r="A313" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1">
-      <c r="A314" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" ht="36">
+      <c r="A321" s="19" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="317" spans="1:1">
-      <c r="A317" t="s">
+    <row r="322" spans="1:1" ht="20.25">
+      <c r="A322" s="18" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="319" spans="1:1" ht="36">
-      <c r="A319" s="19" t="s">
+    <row r="324" spans="1:1" ht="36">
+      <c r="A324" s="19" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="320" spans="1:1" ht="20.25">
-      <c r="A320" s="18" t="s">
+    <row r="325" spans="1:1" ht="20.25">
+      <c r="A325" s="18" t="s">
         <v>373</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1" ht="36">
-      <c r="A322" s="19" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1" ht="20.25">
-      <c r="A323" s="18" t="s">
-        <v>375</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <hyperlinks>
-    <hyperlink ref="A168" r:id="rId1" display="https://www.facebook.com/JustJoinIT/videos/1056723045270675"/>
+    <hyperlink ref="A170" r:id="rId1" display="https://www.facebook.com/JustJoinIT/videos/1056723045270675"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
